--- a/Data/Tag detections log_Sept 22-April 23.xlsx
+++ b/Data/Tag detections log_Sept 22-April 23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Palau\Research\Coastal Fisheries\Natalie Tagging\2022 Bohar tagging\Bohar_2022_2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE13463-6F2A-46F4-9DB3-94C50064DC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247AD53-C1EC-4FE1-AD51-18A274766526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t>Tag</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Only two days detected</t>
+  </si>
+  <si>
+    <t>Only at Siaes Corner</t>
   </si>
 </sst>
 </file>
@@ -403,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1005,6 +1008,12 @@
       <c r="G25" t="s">
         <v>9</v>
       </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
       <c r="J25" t="s">
         <v>16</v>
       </c>
@@ -1031,6 +1040,15 @@
       <c r="G26" t="s">
         <v>9</v>
       </c>
+      <c r="H26">
+        <v>4322</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
@@ -1054,6 +1072,12 @@
       <c r="G27" t="s">
         <v>9</v>
       </c>
+      <c r="H27">
+        <v>963</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -1069,13 +1093,19 @@
         <v>45031</v>
       </c>
       <c r="E28" s="2">
-        <v>44812</v>
+        <v>44867</v>
       </c>
       <c r="F28" s="2">
-        <v>44813</v>
+        <v>45019</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
+      </c>
+      <c r="H28">
+        <v>3688</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1100,6 +1130,12 @@
       <c r="G29" t="s">
         <v>9</v>
       </c>
+      <c r="H29">
+        <v>270</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
@@ -1123,6 +1159,12 @@
       <c r="G30" t="s">
         <v>9</v>
       </c>
+      <c r="H30">
+        <v>24848</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
@@ -1146,6 +1188,12 @@
       <c r="G31" t="s">
         <v>9</v>
       </c>
+      <c r="H31">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
@@ -1172,6 +1220,12 @@
       <c r="G32" t="s">
         <v>9</v>
       </c>
+      <c r="H32">
+        <v>2613</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
@@ -1186,6 +1240,21 @@
       <c r="D33" s="1">
         <v>45031</v>
       </c>
+      <c r="E33" s="2">
+        <v>44868</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44990</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>2846</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1200,6 +1269,21 @@
       <c r="D34" s="1">
         <v>45031</v>
       </c>
+      <c r="E34" s="2">
+        <v>44868</v>
+      </c>
+      <c r="F34" s="2">
+        <v>44925</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>433</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
@@ -1213,6 +1297,21 @@
       </c>
       <c r="D35" s="1">
         <v>45031</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44869</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>2402</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Data/Tag detections log_Sept 22-April 23.xlsx
+++ b/Data/Tag detections log_Sept 22-April 23.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Palau\Research\Coastal Fisheries\Natalie Tagging\2022 Bohar tagging\Bohar_2022_2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2247AD53-C1EC-4FE1-AD51-18A274766526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC8DC6-F492-4889-94E6-666AA4A38636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$67</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="54">
   <si>
     <t>Tag</t>
   </si>
@@ -66,9 +69,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Plotted</t>
-  </si>
-  <si>
     <t>No_detections</t>
   </si>
   <si>
@@ -85,13 +85,118 @@
   </si>
   <si>
     <t>Only at Siaes Corner</t>
+  </si>
+  <si>
+    <t>Plotted_Actel</t>
+  </si>
+  <si>
+    <t>Plotted_R</t>
+  </si>
+  <si>
+    <t>Pattern to Mutiaur - only seems to be present over fullmoon</t>
+  </si>
+  <si>
+    <t>Only detected at Siaes - need to check validity</t>
+  </si>
+  <si>
+    <t>Pattern to Mutiaur - only seems to be present over fullmoon - a little less distinct</t>
+  </si>
+  <si>
+    <t>Pattern less distinct - seems to be present over fullmoon only</t>
+  </si>
+  <si>
+    <t>No pattern - not a lot of detections</t>
+  </si>
+  <si>
+    <t>Not a clear pattern - seems to only be present over fullmoon</t>
+  </si>
+  <si>
+    <t>Resident at Ulong Sandbar? - with movement to Mutiaur - check if over fullmoon</t>
+  </si>
+  <si>
+    <t>Less distinct pattern - seems to be present over fullmoon</t>
+  </si>
+  <si>
+    <t>Resident at Rebotel? Some movement to Mutiaur</t>
+  </si>
+  <si>
+    <t>Some pattern to Mutiaur over fullmoon</t>
+  </si>
+  <si>
+    <t>Only detected 4 days - no pattern</t>
+  </si>
+  <si>
+    <t>Only detected for a month - no clear pattern</t>
+  </si>
+  <si>
+    <t>Only detected 3 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only detected 2 days </t>
+  </si>
+  <si>
+    <t>Only detected 8 days - no pattern</t>
+  </si>
+  <si>
+    <t>Only detected two months - some pattern over the fullmoon</t>
+  </si>
+  <si>
+    <t>Only detected 5 days</t>
+  </si>
+  <si>
+    <t>Pattern over the fullmoon</t>
+  </si>
+  <si>
+    <t>Only detected a month - some pattern</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No detections - tag failure?</t>
+  </si>
+  <si>
+    <t>No detections?</t>
+  </si>
+  <si>
+    <t>Mutiaur pattern - but does not seem to be over the fullmoon</t>
+  </si>
+  <si>
+    <t>Only hangs out at Siaes and Ulong</t>
+  </si>
+  <si>
+    <t>Only at Siaes and only a few weeks of detection</t>
+  </si>
+  <si>
+    <t>No pattern - seems resident around Movement 4</t>
+  </si>
+  <si>
+    <t>No pattern - seems resident around Movement 5</t>
+  </si>
+  <si>
+    <t>Hangs around Mutiaur - trip to Blue Corner</t>
+  </si>
+  <si>
+    <t>Hangs around Mutiaur - only about a month of detection</t>
+  </si>
+  <si>
+    <t>Only one day detection</t>
+  </si>
+  <si>
+    <t>Only two detections</t>
+  </si>
+  <si>
+    <t>Some movement to Mutiaur</t>
+  </si>
+  <si>
+    <t>Seem to be resident at Mutiaur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +204,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -416,10 +537,13 @@
     <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3671875" customWidth="1"/>
+    <col min="10" max="10" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.62890625" customWidth="1"/>
+    <col min="12" max="12" width="27.9453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -442,16 +566,22 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>51651</v>
       </c>
@@ -474,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>51650</v>
       </c>
@@ -506,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>51649</v>
       </c>
@@ -535,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>7270</v>
       </c>
@@ -552,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>7269</v>
       </c>
@@ -569,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>7268</v>
       </c>
@@ -586,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7267</v>
       </c>
@@ -603,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7266</v>
       </c>
@@ -620,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>7286</v>
       </c>
@@ -637,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7273</v>
       </c>
@@ -654,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>7275</v>
       </c>
@@ -671,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>7274</v>
       </c>
@@ -688,7 +818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>7272</v>
       </c>
@@ -705,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>7271</v>
       </c>
@@ -722,8 +852,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
         <v>51644</v>
       </c>
       <c r="B16" t="s">
@@ -750,9 +880,15 @@
       <c r="I16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
         <v>60855</v>
       </c>
       <c r="B17" t="s">
@@ -779,9 +915,15 @@
       <c r="I17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
         <v>60856</v>
       </c>
       <c r="B18" t="s">
@@ -808,9 +950,15 @@
       <c r="I18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
         <v>60859</v>
       </c>
       <c r="B19" t="s">
@@ -837,9 +985,15 @@
       <c r="I19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
         <v>60864</v>
       </c>
       <c r="B20" t="s">
@@ -866,9 +1020,15 @@
       <c r="I20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4">
         <v>60860</v>
       </c>
       <c r="B21" t="s">
@@ -895,9 +1055,15 @@
       <c r="I21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
         <v>60861</v>
       </c>
       <c r="B22" t="s">
@@ -924,9 +1090,15 @@
       <c r="I22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4">
         <v>60862</v>
       </c>
       <c r="B23" t="s">
@@ -954,11 +1126,17 @@
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4">
         <v>60857</v>
       </c>
       <c r="B24" t="s">
@@ -985,9 +1163,15 @@
       <c r="I24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4">
         <v>60858</v>
       </c>
       <c r="B25" t="s">
@@ -1015,11 +1199,17 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4">
         <v>46647</v>
       </c>
       <c r="B26" t="s">
@@ -1047,11 +1237,17 @@
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4">
         <v>46654</v>
       </c>
       <c r="B27" t="s">
@@ -1078,9 +1274,15 @@
       <c r="I27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4">
         <v>60863</v>
       </c>
       <c r="B28" t="s">
@@ -1107,9 +1309,15 @@
       <c r="I28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4">
         <v>46649</v>
       </c>
       <c r="B29" t="s">
@@ -1136,9 +1344,15 @@
       <c r="I29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4">
         <v>46650</v>
       </c>
       <c r="B30" t="s">
@@ -1165,9 +1379,15 @@
       <c r="I30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4">
         <v>46646</v>
       </c>
       <c r="B31" t="s">
@@ -1195,11 +1415,17 @@
         <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4">
         <v>46652</v>
       </c>
       <c r="B32" t="s">
@@ -1226,9 +1452,15 @@
       <c r="I32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4">
         <v>46653</v>
       </c>
       <c r="B33" t="s">
@@ -1255,9 +1487,15 @@
       <c r="I33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4">
         <v>46648</v>
       </c>
       <c r="B34" t="s">
@@ -1284,9 +1522,15 @@
       <c r="I34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4">
         <v>46655</v>
       </c>
       <c r="B35" t="s">
@@ -1313,9 +1557,15 @@
       <c r="I35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4">
         <v>46651</v>
       </c>
       <c r="B36" t="s">
@@ -1327,9 +1577,15 @@
       <c r="D36" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4">
         <v>51647</v>
       </c>
       <c r="B37" t="s">
@@ -1341,9 +1597,15 @@
       <c r="D37" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4">
         <v>51645</v>
       </c>
       <c r="B38" t="s">
@@ -1355,9 +1617,15 @@
       <c r="D38" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4">
         <v>51642</v>
       </c>
       <c r="B39" t="s">
@@ -1369,9 +1637,15 @@
       <c r="D39" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4">
         <v>51648</v>
       </c>
       <c r="B40" t="s">
@@ -1383,9 +1657,15 @@
       <c r="D40" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4">
         <v>51643</v>
       </c>
       <c r="B41" t="s">
@@ -1397,9 +1677,15 @@
       <c r="D41" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4">
         <v>51646</v>
       </c>
       <c r="B42" t="s">
@@ -1411,9 +1697,15 @@
       <c r="D42" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4">
         <v>14010</v>
       </c>
       <c r="B43" t="s">
@@ -1434,9 +1726,15 @@
       <c r="I43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4">
         <v>14011</v>
       </c>
       <c r="B44" t="s">
@@ -1448,9 +1746,15 @@
       <c r="D44" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4">
         <v>14047</v>
       </c>
       <c r="B45" t="s">
@@ -1462,9 +1766,15 @@
       <c r="D45" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4">
         <v>14026</v>
       </c>
       <c r="B46" t="s">
@@ -1476,9 +1786,15 @@
       <c r="D46" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4">
         <v>14020</v>
       </c>
       <c r="B47" t="s">
@@ -1490,8 +1806,14 @@
       <c r="D47" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5958</v>
       </c>
@@ -1504,9 +1826,15 @@
       <c r="D48" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+      <c r="K48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4">
         <v>14021</v>
       </c>
       <c r="B49" t="s">
@@ -1518,8 +1846,14 @@
       <c r="D49" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>5970</v>
       </c>
@@ -1532,8 +1866,14 @@
       <c r="D50" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>5960</v>
       </c>
@@ -1546,8 +1886,14 @@
       <c r="D51" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>49996</v>
       </c>
@@ -1560,8 +1906,14 @@
       <c r="D52" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>49991</v>
       </c>
@@ -1574,8 +1926,14 @@
       <c r="D53" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>63786</v>
       </c>
@@ -1588,8 +1946,14 @@
       <c r="D54" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>49993</v>
       </c>
@@ -1602,8 +1966,14 @@
       <c r="D55" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>63782</v>
       </c>
@@ -1616,8 +1986,14 @@
       <c r="D56" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>63788</v>
       </c>
@@ -1630,8 +2006,14 @@
       <c r="D57" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>49994</v>
       </c>
@@ -1644,8 +2026,14 @@
       <c r="D58" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>63784</v>
       </c>
@@ -1658,8 +2046,14 @@
       <c r="D59" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>49998</v>
       </c>
@@ -1672,8 +2066,14 @@
       <c r="D60" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>49999</v>
       </c>
@@ -1686,8 +2086,14 @@
       <c r="D61" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>49992</v>
       </c>
@@ -1700,8 +2106,14 @@
       <c r="D62" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>63781</v>
       </c>
@@ -1714,8 +2126,14 @@
       <c r="D63" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63789</v>
       </c>
@@ -1728,8 +2146,14 @@
       <c r="D64" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>49995</v>
       </c>
@@ -1742,8 +2166,14 @@
       <c r="D65" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>49997</v>
       </c>
@@ -1756,8 +2186,14 @@
       <c r="D66" s="1">
         <v>45031</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>63780</v>
       </c>
@@ -1772,6 +2208,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>